--- a/200902~ 데이터 분석(python)/data/sample_result.xlsx
+++ b/200902~ 데이터 분석(python)/data/sample_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>국적코드</t>
   </si>
@@ -25,9 +25,6 @@
     <t>입국객수</t>
   </si>
   <si>
-    <t>전년동기</t>
-  </si>
-  <si>
     <t>기준년월</t>
   </si>
   <si>
@@ -43,24 +40,6 @@
     <t>A18</t>
   </si>
   <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A99</t>
-  </si>
-  <si>
     <t>남성</t>
   </si>
   <si>
@@ -77,24 +56,6 @@
   </si>
   <si>
     <t>중국</t>
-  </si>
-  <si>
-    <t>대만</t>
-  </si>
-  <si>
-    <t>홍콩</t>
-  </si>
-  <si>
-    <t>이란</t>
-  </si>
-  <si>
-    <t>우즈베키스탄</t>
-  </si>
-  <si>
-    <t>카자흐스탄</t>
-  </si>
-  <si>
-    <t>아시아 기타</t>
   </si>
 </sst>
 </file>
@@ -452,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,286 +435,199 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>106320</v>
       </c>
-      <c r="E2">
-        <v>85815</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>191436</v>
       </c>
-      <c r="E3">
-        <v>125241</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>319</v>
       </c>
-      <c r="E4">
-        <v>299</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>42</v>
       </c>
-      <c r="E5">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>158912</v>
       </c>
-      <c r="E6">
-        <v>124486</v>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>232943</v>
       </c>
-      <c r="E7">
-        <v>163466</v>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>92556</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="D9">
+        <v>163737</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>155540</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11">
+        <v>249023</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>92556</v>
-      </c>
-      <c r="E14">
-        <v>75992</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>163737</v>
-      </c>
-      <c r="E15">
-        <v>115397</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>155540</v>
-      </c>
-      <c r="E16">
-        <v>129908</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>249023</v>
-      </c>
-      <c r="E17">
-        <v>191236</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
